--- a/data/trans_orig/P1415-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3713</v>
+        <v>3845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16578</v>
+        <v>17444</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02958025934860681</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01259904675673074</v>
+        <v>0.01304528140411391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05624569692885675</v>
+        <v>0.05918486578368962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>4860</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1820</v>
+        <v>1048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12838</v>
+        <v>11910</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01691988770713498</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006337124676819089</v>
+        <v>0.003649655052186622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04469193302824014</v>
+        <v>0.04146171245899312</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -784,19 +784,19 @@
         <v>13579</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7041</v>
+        <v>7443</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24901</v>
+        <v>23010</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02333157465889663</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01209753100441307</v>
+        <v>0.01278892678952075</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04278659115623458</v>
+        <v>0.03953799311770043</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>286020</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278160</v>
+        <v>277294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291025</v>
+        <v>290893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9704197406513932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9437543030711431</v>
+        <v>0.9408151342163104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9874009532432692</v>
+        <v>0.986954718595886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -834,19 +834,19 @@
         <v>282385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>274407</v>
+        <v>275335</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285425</v>
+        <v>286197</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9830801122928651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9553080669717596</v>
+        <v>0.9585382875410068</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9936628753231809</v>
+        <v>0.9963503449478134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>526</v>
@@ -855,19 +855,19 @@
         <v>568404</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557082</v>
+        <v>558973</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>574942</v>
+        <v>574540</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9766684253411033</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9572134088437658</v>
+        <v>0.9604620068822997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.987902468995587</v>
+        <v>0.9872110732104793</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13640</v>
+        <v>13090</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008172042114816362</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02698201602529801</v>
+        <v>0.02589426988389702</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -980,19 +980,19 @@
         <v>7085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3001</v>
+        <v>3010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13564</v>
+        <v>14247</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01352788582231358</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005728984253965563</v>
+        <v>0.005745919008133532</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02589740952488921</v>
+        <v>0.02720069922839713</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1001,19 +1001,19 @@
         <v>11217</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5141</v>
+        <v>5100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21474</v>
+        <v>21430</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01089741333181832</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004994211952828915</v>
+        <v>0.004955156218858439</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02086301003635645</v>
+        <v>0.02081970782146154</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>501396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491887</v>
+        <v>492437</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>505527</v>
@@ -1039,7 +1039,7 @@
         <v>0.9918279578851836</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9730179839747006</v>
+        <v>0.9741057301161032</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>516680</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510201</v>
+        <v>509518</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>520764</v>
+        <v>520755</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9864721141776864</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9741025904751108</v>
+        <v>0.9727993007716029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9942710157460344</v>
+        <v>0.9942540809918665</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>943</v>
@@ -1072,19 +1072,19 @@
         <v>1018075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1007818</v>
+        <v>1007862</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1024151</v>
+        <v>1024192</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9891025866681816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9791369899636437</v>
+        <v>0.9791802921785384</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9950057880471711</v>
+        <v>0.9950448437811416</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5064</v>
+        <v>5047</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003108828176366743</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01562840935545714</v>
+        <v>0.01557506009551547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1200,16 +1200,16 @@
         <v>951</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8647</v>
+        <v>8811</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008840104885703456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0027877338310077</v>
+        <v>0.002787454197683925</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02535749451841892</v>
+        <v>0.02583825369094988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1218,19 +1218,19 @@
         <v>4022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10050</v>
+        <v>9513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006047604183435414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001507085470058921</v>
+        <v>0.001484240808730961</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01511055267900535</v>
+        <v>0.01430337210847257</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>323039</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>318982</v>
+        <v>318999</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -1256,7 +1256,7 @@
         <v>0.9968911718236333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9843715906445428</v>
+        <v>0.9844249399044845</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>338005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332373</v>
+        <v>332209</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>340069</v>
@@ -1277,10 +1277,10 @@
         <v>0.9911598951142966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.974642505481582</v>
+        <v>0.9741617463090489</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972122661689923</v>
+        <v>0.9972125458023161</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>632</v>
@@ -1289,19 +1289,19 @@
         <v>661044</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>655016</v>
+        <v>655553</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>664064</v>
+        <v>664079</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9939523958165646</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9848894473209947</v>
+        <v>0.9856966278915275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.998492914529941</v>
+        <v>0.9985157591912691</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>6409</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2161</v>
+        <v>2225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12725</v>
+        <v>12633</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01713737020997717</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005777389699108612</v>
+        <v>0.005950243370916694</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03402580323305453</v>
+        <v>0.03377901326675416</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1414,19 +1414,19 @@
         <v>5495</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1914</v>
+        <v>1925</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12847</v>
+        <v>12819</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01412896159730093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004921087509987888</v>
+        <v>0.004948461058591104</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03302992266338763</v>
+        <v>0.03295905196704622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1435,19 +1435,19 @@
         <v>11905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6556</v>
+        <v>6005</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21257</v>
+        <v>21314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01560365315227988</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008592771241241382</v>
+        <v>0.007871512226395956</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0278619034169178</v>
+        <v>0.02793653674681988</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>367573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>361257</v>
+        <v>361349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371821</v>
+        <v>371757</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9828626297900228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9659741967669455</v>
+        <v>0.9662209867332461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9942226103008915</v>
+        <v>0.9940497566290833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -1485,19 +1485,19 @@
         <v>383456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376104</v>
+        <v>376132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>387037</v>
+        <v>387026</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9858710384026991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9669700773366118</v>
+        <v>0.9670409480329537</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.995078912490012</v>
+        <v>0.9950515389414089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>704</v>
@@ -1506,19 +1506,19 @@
         <v>751028</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>741676</v>
+        <v>741619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>756377</v>
+        <v>756928</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9843963468477201</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9721380965830821</v>
+        <v>0.9720634632531803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9914072287587586</v>
+        <v>0.9921284877736043</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>4187</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1024</v>
+        <v>1147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10518</v>
+        <v>9655</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01969378276960307</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004817538430507085</v>
+        <v>0.005396765902195521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04947021305020097</v>
+        <v>0.04541041002668084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1631,19 +1631,19 @@
         <v>2944</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7929</v>
+        <v>7941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01340685205072089</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004057917774073447</v>
+        <v>0.00403604533754845</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03610783800421288</v>
+        <v>0.03616356539204062</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1652,19 +1652,19 @@
         <v>7131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3049</v>
+        <v>3038</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14194</v>
+        <v>14319</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01649960292200894</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00705336423836567</v>
+        <v>0.007028483638117303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03284094480498236</v>
+        <v>0.03312881933727303</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>208431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202100</v>
+        <v>202963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211594</v>
+        <v>211471</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9803062172303969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9505297869497989</v>
+        <v>0.9545895899733191</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.995182461569493</v>
+        <v>0.9946032340978045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>209</v>
@@ -1702,19 +1702,19 @@
         <v>216647</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211662</v>
+        <v>211650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218700</v>
+        <v>218705</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9865931479492791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9638921619957873</v>
+        <v>0.9638364346079598</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9959420822259265</v>
+        <v>0.9959639546624516</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>401</v>
@@ -1723,19 +1723,19 @@
         <v>425078</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>418015</v>
+        <v>417890</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429160</v>
+        <v>429171</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9835003970779911</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9671590551950175</v>
+        <v>0.9668711806627268</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9929466357616343</v>
+        <v>0.9929715163618826</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>6090</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2068</v>
+        <v>2116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12333</v>
+        <v>12972</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02222642235580737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007548058605116101</v>
+        <v>0.007724482620716859</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04501288561933256</v>
+        <v>0.04734805110575203</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1848,19 +1848,19 @@
         <v>2990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8028</v>
+        <v>8934</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01075243990297058</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00342050313932097</v>
+        <v>0.003371878633851428</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02886740711942403</v>
+        <v>0.03212485118339416</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1869,19 +1869,19 @@
         <v>9080</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4066</v>
+        <v>4007</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16202</v>
+        <v>16139</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01644667211158111</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007364057212497468</v>
+        <v>0.007257912184989131</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02934725525728367</v>
+        <v>0.02923369047641416</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>267891</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261648</v>
+        <v>261009</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271913</v>
+        <v>271865</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9777735776441926</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9549871143806674</v>
+        <v>0.9526519488942482</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9924519413948839</v>
+        <v>0.9922755173792832</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -1919,19 +1919,19 @@
         <v>275106</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>270068</v>
+        <v>269162</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277145</v>
+        <v>277158</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9892475600970294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.971132592880576</v>
+        <v>0.967875148816606</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.996579496860679</v>
+        <v>0.9966281213661485</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>520</v>
@@ -1940,19 +1940,19 @@
         <v>542997</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>535875</v>
+        <v>535938</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>548011</v>
+        <v>548070</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9835533278884189</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9706527447427163</v>
+        <v>0.9707663095235858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9926359427875026</v>
+        <v>0.9927420878150108</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>16761</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9367</v>
+        <v>10003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27108</v>
+        <v>28787</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02528878027058572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0141333426319865</v>
+        <v>0.0150924993646263</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04090040683304211</v>
+        <v>0.04343329538674356</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2065,19 +2065,19 @@
         <v>6368</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2683</v>
+        <v>2125</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13173</v>
+        <v>12822</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009177296486125464</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003866922304688387</v>
+        <v>0.003062325516067449</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01898584508272191</v>
+        <v>0.01847872454942752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2086,19 +2086,19 @@
         <v>23129</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14918</v>
+        <v>14681</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34454</v>
+        <v>34985</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01704857464181246</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01099598233407992</v>
+        <v>0.010821648482257</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02539677001823614</v>
+        <v>0.02578826124643878</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>646027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>635680</v>
+        <v>634001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>653421</v>
+        <v>652785</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9747112197294143</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9590995931669578</v>
+        <v>0.9565667046132562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9858666573680135</v>
+        <v>0.9849075006353734</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>630</v>
@@ -2136,19 +2136,19 @@
         <v>687485</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>680680</v>
+        <v>681031</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>691170</v>
+        <v>691728</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9908227035138746</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9810141549172778</v>
+        <v>0.9815212754505724</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9961330776953106</v>
+        <v>0.9969376744839326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1233</v>
@@ -2157,19 +2157,19 @@
         <v>1333512</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1322187</v>
+        <v>1321656</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1341723</v>
+        <v>1341960</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9829514253581876</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9746032299817634</v>
+        <v>0.9742117387535612</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9890040176659201</v>
+        <v>0.9891783515177429</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>9666</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4343</v>
+        <v>4302</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18505</v>
+        <v>19599</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01240689234527123</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005573936306076497</v>
+        <v>0.005522220336367094</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02375182351677894</v>
+        <v>0.02515622759814143</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2282,19 +2282,19 @@
         <v>4371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1123</v>
+        <v>1134</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10355</v>
+        <v>10162</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005313952315906209</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001365732754949022</v>
+        <v>0.001378494852996327</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01258902487988068</v>
+        <v>0.01235356387507908</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2303,19 +2303,19 @@
         <v>14037</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7486</v>
+        <v>7581</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24644</v>
+        <v>24910</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008764149324285198</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004673743587266427</v>
+        <v>0.00473330538614839</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0153863170686018</v>
+        <v>0.01555247283361544</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>769432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>760593</v>
+        <v>759499</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774755</v>
+        <v>774796</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9875931076547287</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.976248176483221</v>
+        <v>0.9748437724018585</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9944260636939235</v>
+        <v>0.9944777796636328</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>752</v>
@@ -2353,19 +2353,19 @@
         <v>818207</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>812223</v>
+        <v>812416</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>821455</v>
+        <v>821444</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9946860476840937</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9874109751201189</v>
+        <v>0.9876464361249211</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.998634267245051</v>
+        <v>0.9986215051470038</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1461</v>
@@ -2374,19 +2374,19 @@
         <v>1587639</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1577032</v>
+        <v>1576766</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1594190</v>
+        <v>1594095</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9912358506757148</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9846136829313968</v>
+        <v>0.9844475271663845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9953262564127335</v>
+        <v>0.9952666946138515</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>56970</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43695</v>
+        <v>42679</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>76357</v>
+        <v>74335</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01662501586766238</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0127510950300598</v>
+        <v>0.01245467498800649</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02228251642670947</v>
+        <v>0.02169238821027855</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>35</v>
@@ -2499,19 +2499,19 @@
         <v>37129</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26367</v>
+        <v>25936</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>52740</v>
+        <v>51562</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01044381157534716</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007416684957972974</v>
+        <v>0.007295488764144104</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01483497280142697</v>
+        <v>0.01450355128762211</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>85</v>
@@ -2520,19 +2520,19 @@
         <v>94099</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>76559</v>
+        <v>77024</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116446</v>
+        <v>118432</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01347761169614811</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01096535531725188</v>
+        <v>0.01103203602405748</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01667826142126302</v>
+        <v>0.01696273293150695</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>3369809</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3350422</v>
+        <v>3352444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3383084</v>
+        <v>3384100</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9833749841323376</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9777174835732898</v>
+        <v>0.9783076117897214</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.98724890496994</v>
+        <v>0.9875453250119935</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3261</v>
@@ -2570,19 +2570,19 @@
         <v>3517969</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3502358</v>
+        <v>3503536</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3528731</v>
+        <v>3529162</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9895561884246529</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.985165027198573</v>
+        <v>0.9854964487123778</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.992583315042027</v>
+        <v>0.9927045112358559</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6420</v>
@@ -2591,19 +2591,19 @@
         <v>6887778</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6865431</v>
+        <v>6863445</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6905318</v>
+        <v>6904853</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9865223883038519</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9833217385787368</v>
+        <v>0.9830372670684931</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.989034644682748</v>
+        <v>0.9889679639759426</v>
       </c>
     </row>
     <row r="30">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5963</v>
+        <v>6843</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005805867800529345</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02029915182529908</v>
+        <v>0.02329374231288651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2960,19 +2960,19 @@
         <v>8782</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3895</v>
+        <v>4125</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15538</v>
+        <v>16483</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03041943135786117</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0134897924736133</v>
+        <v>0.01428823278704132</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05382004485433475</v>
+        <v>0.05709322279747558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2981,19 +2981,19 @@
         <v>10488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5630</v>
+        <v>5754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17473</v>
+        <v>18177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01800577994579222</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009665565329152864</v>
+        <v>0.009879334364557853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02999848778724926</v>
+        <v>0.03120666465469898</v>
       </c>
     </row>
     <row r="5">
@@ -3010,7 +3010,7 @@
         <v>292055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287798</v>
+        <v>286918</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -3019,7 +3019,7 @@
         <v>0.9941941321994706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9797008481747009</v>
+        <v>0.9767062576871136</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3031,19 +3031,19 @@
         <v>279921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273165</v>
+        <v>272220</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284808</v>
+        <v>284578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9695805686421388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9461799551456649</v>
+        <v>0.9429067772025244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9865102075263867</v>
+        <v>0.9857117672129588</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -3052,19 +3052,19 @@
         <v>571976</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>564991</v>
+        <v>564287</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576834</v>
+        <v>576710</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9819942200542078</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9700015122127511</v>
+        <v>0.968793335345301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9903344346708475</v>
+        <v>0.9901206656354422</v>
       </c>
     </row>
     <row r="6">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7942</v>
+        <v>5469</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002291757045969499</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01580192123666045</v>
+        <v>0.01088101417084761</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3177,19 +3177,19 @@
         <v>4086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10139</v>
+        <v>10251</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007812159308531014</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002076597553598932</v>
+        <v>0.002084807395638703</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01938288958348781</v>
+        <v>0.01959632487591223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -3198,19 +3198,19 @@
         <v>5238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11818</v>
+        <v>11210</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005107149958460069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001957969295559425</v>
+        <v>0.001958352076314951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01152218615521027</v>
+        <v>0.01092953369803035</v>
       </c>
     </row>
     <row r="8">
@@ -3227,7 +3227,7 @@
         <v>501423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494633</v>
+        <v>497106</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -3236,7 +3236,7 @@
         <v>0.9977082429540305</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9841980787633395</v>
+        <v>0.9891189858291529</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3248,19 +3248,19 @@
         <v>518998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>512945</v>
+        <v>512833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521998</v>
+        <v>521993</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.992187840691469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9806171104165121</v>
+        <v>0.980403675124088</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9979234024464011</v>
+        <v>0.9979151926043613</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>954</v>
@@ -3269,19 +3269,19 @@
         <v>1020421</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1013841</v>
+        <v>1014449</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023651</v>
+        <v>1023650</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9948928500415399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9884778138447903</v>
+        <v>0.9890704663019696</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980420307044406</v>
+        <v>0.9980416479236851</v>
       </c>
     </row>
     <row r="9">
@@ -3376,16 +3376,16 @@
         <v>1730</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9891</v>
+        <v>9870</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01406952035097413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005431633396434666</v>
+        <v>0.005429420133337953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0310473648542533</v>
+        <v>0.03098276816705409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6932</v>
+        <v>7148</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005898958391520183</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02061059367921901</v>
+        <v>0.0212550735170655</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -3415,19 +3415,19 @@
         <v>6466</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2778</v>
+        <v>2699</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12786</v>
+        <v>12952</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009873547476778391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004241484308667744</v>
+        <v>0.004121115871181264</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01952392386479133</v>
+        <v>0.01977728363956287</v>
       </c>
     </row>
     <row r="11">
@@ -3444,7 +3444,7 @@
         <v>314083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308674</v>
+        <v>308695</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>316835</v>
@@ -3453,10 +3453,10 @@
         <v>0.9859304796490259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9689526351457473</v>
+        <v>0.9690172318329459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9945683666035655</v>
+        <v>0.9945705798666621</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>330</v>
@@ -3465,7 +3465,7 @@
         <v>334325</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329377</v>
+        <v>329161</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -3474,7 +3474,7 @@
         <v>0.9941010416084798</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.979389406320781</v>
+        <v>0.9787449264829337</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3486,19 +3486,19 @@
         <v>648408</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>642088</v>
+        <v>641922</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652096</v>
+        <v>652175</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9901264525232216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9804760761352087</v>
+        <v>0.9802227163604371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9957585156913322</v>
+        <v>0.9958788841288188</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>5306</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1984</v>
+        <v>2021</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11796</v>
+        <v>12628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01434214500138857</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005363648594700093</v>
+        <v>0.005464016555820544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03188335738113893</v>
+        <v>0.03413341277390197</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3611,19 +3611,19 @@
         <v>4298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1207</v>
+        <v>1011</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11330</v>
+        <v>10824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01109781642204165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003117446182005308</v>
+        <v>0.002609473861709988</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02925405546490976</v>
+        <v>0.02794906975811666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3632,19 +3632,19 @@
         <v>9604</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4886</v>
+        <v>4545</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17982</v>
+        <v>18080</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01268288017820963</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006452781322534186</v>
+        <v>0.006001347223691307</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02374689241321493</v>
+        <v>0.02387598318613144</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>364658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358168</v>
+        <v>357336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367980</v>
+        <v>367943</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9856578549986115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.968116642618862</v>
+        <v>0.9658665872260986</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9946363514052999</v>
+        <v>0.9945359834441795</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -3682,19 +3682,19 @@
         <v>382985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>375953</v>
+        <v>376459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386076</v>
+        <v>386272</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9889021835779583</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9707459445350902</v>
+        <v>0.9720509302418823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9968825538179946</v>
+        <v>0.99739052613829</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>703</v>
@@ -3703,19 +3703,19 @@
         <v>747643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739265</v>
+        <v>739167</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752361</v>
+        <v>752702</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9873171198217904</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9762531075867851</v>
+        <v>0.9761240168138685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9935472186774659</v>
+        <v>0.9939986527763087</v>
       </c>
     </row>
     <row r="15">
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4529</v>
+        <v>4459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004204075435306248</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02144356919262091</v>
+        <v>0.02111118387676048</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3828,19 +3828,19 @@
         <v>3872</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1023</v>
+        <v>872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10129</v>
+        <v>8813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01771355117747669</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004680586955154924</v>
+        <v>0.003988882853831387</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04633912033864742</v>
+        <v>0.04032032926343791</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3852,16 +3852,16 @@
         <v>1765</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11255</v>
+        <v>10353</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01107457525386917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004107174224529795</v>
+        <v>0.004105676347562019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02618711156359682</v>
+        <v>0.02408689623697541</v>
       </c>
     </row>
     <row r="17">
@@ -3878,7 +3878,7 @@
         <v>210333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206692</v>
+        <v>206762</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -3887,7 +3887,7 @@
         <v>0.9957959245646938</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9785564308073791</v>
+        <v>0.9788888161232395</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3899,19 +3899,19 @@
         <v>214715</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208458</v>
+        <v>209774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217564</v>
+        <v>217715</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9822864488225234</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9536608796613514</v>
+        <v>0.9596796707365624</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9953194130448451</v>
+        <v>0.9960111171461685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>430</v>
@@ -3920,7 +3920,7 @@
         <v>425048</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>418553</v>
+        <v>419455</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>428043</v>
@@ -3929,10 +3929,10 @@
         <v>0.9889254247461309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9738128884364031</v>
+        <v>0.9759131037630248</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9958928257754702</v>
+        <v>0.9958943236524379</v>
       </c>
     </row>
     <row r="18">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3998</v>
+        <v>4056</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003011992879054349</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01519555978657063</v>
+        <v>0.01541469751921133</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -4045,19 +4045,19 @@
         <v>6237</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2127</v>
+        <v>2193</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12957</v>
+        <v>13798</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02283505512507869</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007787119585158761</v>
+        <v>0.008028592336504378</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04744292574764959</v>
+        <v>0.05051930799271753</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -4066,19 +4066,19 @@
         <v>7029</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2871</v>
+        <v>2998</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14198</v>
+        <v>14895</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01310821071111359</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005353669361250026</v>
+        <v>0.005591023031656732</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02647623920398749</v>
+        <v>0.02777748876299989</v>
       </c>
     </row>
     <row r="20">
@@ -4095,7 +4095,7 @@
         <v>262330</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259125</v>
+        <v>259067</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -4104,7 +4104,7 @@
         <v>0.9969880071209456</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9848044402134294</v>
+        <v>0.9845853024807886</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4116,19 +4116,19 @@
         <v>266878</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260158</v>
+        <v>259317</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270988</v>
+        <v>270922</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9771649448749213</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9525570742523495</v>
+        <v>0.9494806920072825</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.992212880414841</v>
+        <v>0.9919714076634956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -4137,19 +4137,19 @@
         <v>529209</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>522040</v>
+        <v>521343</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533367</v>
+        <v>533240</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9868917892888864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9735237607960124</v>
+        <v>0.9722225112370001</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.99464633063875</v>
+        <v>0.9944089769683433</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>7854</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3561</v>
+        <v>3178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15497</v>
+        <v>14628</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01196236952492859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005423517292223392</v>
+        <v>0.004840588621392711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0236035189258343</v>
+        <v>0.02228013529203815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4262,19 +4262,19 @@
         <v>11449</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6190</v>
+        <v>5742</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20210</v>
+        <v>21414</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01656153082147939</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008954072827001613</v>
+        <v>0.008306126400618223</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02923553932064011</v>
+        <v>0.03097698839440124</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -4283,19 +4283,19 @@
         <v>19303</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11825</v>
+        <v>11265</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29228</v>
+        <v>28669</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.014321213535472</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008773532229957399</v>
+        <v>0.008357597405614038</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02168495966380417</v>
+        <v>0.02127040874211244</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>648704</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>641061</v>
+        <v>641930</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>652997</v>
+        <v>653380</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9880376304750714</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9763964810741647</v>
+        <v>0.9777198647079617</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9945764827077765</v>
+        <v>0.9951594113786071</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>636</v>
@@ -4333,19 +4333,19 @@
         <v>679845</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>671084</v>
+        <v>669880</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>685104</v>
+        <v>685552</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9834384691785206</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9707644606793598</v>
+        <v>0.9690230116055991</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9910459271729983</v>
+        <v>0.9916938735993819</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1208</v>
@@ -4354,19 +4354,19 @@
         <v>1328549</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1318624</v>
+        <v>1319183</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1336027</v>
+        <v>1336587</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.985678786464528</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9783150403361958</v>
+        <v>0.9787295912578876</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9912264677700424</v>
+        <v>0.9916424025943859</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>13281</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6646</v>
+        <v>7143</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22258</v>
+        <v>22563</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01705744991462064</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008536363553461126</v>
+        <v>0.009174484005745907</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02858795417800735</v>
+        <v>0.02897989072536634</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -4479,19 +4479,19 @@
         <v>15735</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8984</v>
+        <v>9365</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26917</v>
+        <v>27384</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01904556464157971</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01087389662813768</v>
+        <v>0.01133594288486521</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03258117034326574</v>
+        <v>0.03314630508586002</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -4500,19 +4500,19 @@
         <v>29015</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20252</v>
+        <v>19826</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43020</v>
+        <v>41116</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0180809830411714</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01261985186821292</v>
+        <v>0.01235463623422812</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0268080689031903</v>
+        <v>0.02562171685373172</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>765302</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>756325</v>
+        <v>756020</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>771937</v>
+        <v>771440</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9829425500853793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9714120458219925</v>
+        <v>0.9710201092746332</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9914636364465388</v>
+        <v>0.9908255159942541</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>741</v>
@@ -4550,19 +4550,19 @@
         <v>810432</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>799250</v>
+        <v>798783</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>817183</v>
+        <v>816802</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9809544353584203</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9674188296567342</v>
+        <v>0.9668536949141392</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9891261033718621</v>
+        <v>0.9886640571151347</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1479</v>
@@ -4571,19 +4571,19 @@
         <v>1575735</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1561730</v>
+        <v>1563634</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1584498</v>
+        <v>1584924</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9819190169588285</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9731919310968092</v>
+        <v>0.9743782831462683</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9873801481317867</v>
+        <v>0.9876453637657718</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>35461</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25592</v>
+        <v>24285</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50498</v>
+        <v>48255</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01044694623710826</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007539529877412198</v>
+        <v>0.007154589266589026</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01487709689041332</v>
+        <v>0.01421625234481037</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>53</v>
@@ -4696,19 +4696,19 @@
         <v>56443</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>42195</v>
+        <v>42844</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>73463</v>
+        <v>72466</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01592383924014611</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01190431354688563</v>
+        <v>0.01208741156938914</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0207256174914267</v>
+        <v>0.02044449505704603</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>88</v>
@@ -4717,19 +4717,19 @@
         <v>91903</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>73595</v>
+        <v>73853</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112490</v>
+        <v>114142</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01324466614917378</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01060622109711153</v>
+        <v>0.01064338849280903</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01621146936701997</v>
+        <v>0.01644958965521245</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>3358889</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3343852</v>
+        <v>3346095</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3368758</v>
+        <v>3370065</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9895530537628917</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9851229031095865</v>
+        <v>0.9857837476551895</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9924604701225878</v>
+        <v>0.9928454107334109</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3285</v>
@@ -4767,19 +4767,19 @@
         <v>3488099</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3471079</v>
+        <v>3472076</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3502347</v>
+        <v>3501698</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9840761607598539</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9792743825085733</v>
+        <v>0.979555504942954</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9880956864531143</v>
+        <v>0.9879125884306108</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6481</v>
@@ -4788,19 +4788,19 @@
         <v>6846989</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6826402</v>
+        <v>6824750</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6865297</v>
+        <v>6865039</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9867553338508263</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9837885306329801</v>
+        <v>0.9835504103447875</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9893937789028885</v>
+        <v>0.989356611507191</v>
       </c>
     </row>
     <row r="30">
